--- a/biology/Botanique/Trichoptilium_incisum/Trichoptilium_incisum.xlsx
+++ b/biology/Botanique/Trichoptilium_incisum/Trichoptilium_incisum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trichoptilium incisum est une espèce de plante à fleurs appartenant à la famille des composées (Asteraceae). C'est la seule espèce du genre Trichoptilium.
 </t>
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante basse, odorante, présentant des poils laineux, mesure entre 15 et 20 cm de hauteur. Les feuilles, essentiellement regroupées à la base, sont lancéolées et mesurent de 2 à 5 cm de longueur[1].
-Appareil reproducteur
-La floraison a lieu deux fois par an, entre février et mai puis entre octobre et novembre.
-Les inflorescences sont des capitules tubuliflores, jaunes, portés par de longues tiges florales sans feuilles. Ils mesurent environ 1,3 cm de diamètre[1].
-Les fruits sont des akènes bordés de 5 écailles blanches ou beiges à bordure frangée.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante basse, odorante, présentant des poils laineux, mesure entre 15 et 20 cm de hauteur. Les feuilles, essentiellement regroupées à la base, sont lancéolées et mesurent de 2 à 5 cm de longueur.
 </t>
         </is>
       </c>
@@ -544,10 +557,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description morphologique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu deux fois par an, entre février et mai puis entre octobre et novembre.
+Les inflorescences sont des capitules tubuliflores, jaunes, portés par de longues tiges florales sans feuilles. Ils mesurent environ 1,3 cm de diamètre.
+Les fruits sont des akènes bordés de 5 écailles blanches ou beiges à bordure frangée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Trichoptilium_incisum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trichoptilium_incisum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante vit dans le sud-ouest des États-Unis (Arizona, Nevada) et au nord-ouest du Mexique.
 Elles pousse dans les zones désertiques, sur sol sablonneux ou caillouteux.
